--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_36ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_36ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -3402,28 +3402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>544.2212601307531</v>
+        <v>617.3095229582505</v>
       </c>
       <c r="AB2" t="n">
-        <v>744.6275374583995</v>
+        <v>844.6301230855687</v>
       </c>
       <c r="AC2" t="n">
-        <v>673.5613303746816</v>
+        <v>764.0198095841045</v>
       </c>
       <c r="AD2" t="n">
-        <v>544221.260130753</v>
+        <v>617309.5229582505</v>
       </c>
       <c r="AE2" t="n">
-        <v>744627.5374583995</v>
+        <v>844630.1230855687</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.425349210498699e-06</v>
+        <v>2.63726921641268e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.66261574074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>673561.3303746816</v>
+        <v>764019.8095841045</v>
       </c>
     </row>
     <row r="3">
@@ -3508,28 +3508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>336.1132401372892</v>
+        <v>384.8956425920019</v>
       </c>
       <c r="AB3" t="n">
-        <v>459.8849634254682</v>
+        <v>526.6311985917127</v>
       </c>
       <c r="AC3" t="n">
-        <v>415.9941879687407</v>
+        <v>476.3702561296484</v>
       </c>
       <c r="AD3" t="n">
-        <v>336113.2401372892</v>
+        <v>384895.6425920019</v>
       </c>
       <c r="AE3" t="n">
-        <v>459884.9634254682</v>
+        <v>526631.1985917127</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.976004570560558e-06</v>
+        <v>3.656125802045951e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.690972222222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>415994.1879687407</v>
+        <v>476370.2561296484</v>
       </c>
     </row>
     <row r="4">
@@ -3614,28 +3614,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>285.2791342965706</v>
+        <v>333.9761958967117</v>
       </c>
       <c r="AB4" t="n">
-        <v>390.3314971717252</v>
+        <v>456.9609652157721</v>
       </c>
       <c r="AC4" t="n">
-        <v>353.078806915352</v>
+        <v>413.3492520443208</v>
       </c>
       <c r="AD4" t="n">
-        <v>285279.1342965707</v>
+        <v>333976.1958967117</v>
       </c>
       <c r="AE4" t="n">
-        <v>390331.4971717252</v>
+        <v>456960.9652157722</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.191277467164617e-06</v>
+        <v>4.054437022314026e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.935763888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>353078.806915352</v>
+        <v>413349.2520443208</v>
       </c>
     </row>
     <row r="5">
@@ -3720,28 +3720,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>267.8438896066364</v>
+        <v>316.5409512067775</v>
       </c>
       <c r="AB5" t="n">
-        <v>366.4758261982481</v>
+        <v>433.1052942422951</v>
       </c>
       <c r="AC5" t="n">
-        <v>331.499887697939</v>
+        <v>391.7703328269078</v>
       </c>
       <c r="AD5" t="n">
-        <v>267843.8896066364</v>
+        <v>316540.9512067775</v>
       </c>
       <c r="AE5" t="n">
-        <v>366475.8261982481</v>
+        <v>433105.2942422951</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.302196315085519e-06</v>
+        <v>4.259665931122559e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.60011574074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>331499.887697939</v>
+        <v>391770.3328269078</v>
       </c>
     </row>
     <row r="6">
@@ -3826,28 +3826,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>256.5061179973798</v>
+        <v>293.0076684923969</v>
       </c>
       <c r="AB6" t="n">
-        <v>350.9629868951153</v>
+        <v>400.9060186173197</v>
       </c>
       <c r="AC6" t="n">
-        <v>317.4675720055961</v>
+        <v>362.644110875613</v>
       </c>
       <c r="AD6" t="n">
-        <v>256506.1179973797</v>
+        <v>293007.6684923969</v>
       </c>
       <c r="AE6" t="n">
-        <v>350962.9868951152</v>
+        <v>400906.0186173196</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.373358738822649e-06</v>
+        <v>4.391335046385609e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.403356481481481</v>
       </c>
       <c r="AH6" t="n">
-        <v>317467.5720055961</v>
+        <v>362644.1108756129</v>
       </c>
     </row>
     <row r="7">
@@ -3932,28 +3932,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>247.0792097691391</v>
+        <v>283.5807602641561</v>
       </c>
       <c r="AB7" t="n">
-        <v>338.0646751714037</v>
+        <v>388.0077068936014</v>
       </c>
       <c r="AC7" t="n">
-        <v>305.8002570498971</v>
+        <v>350.9767959199122</v>
       </c>
       <c r="AD7" t="n">
-        <v>247079.2097691391</v>
+        <v>283580.7602641562</v>
       </c>
       <c r="AE7" t="n">
-        <v>338064.6751714037</v>
+        <v>388007.7068936015</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.425667059148983e-06</v>
+        <v>4.48811913406236e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.264467592592593</v>
       </c>
       <c r="AH7" t="n">
-        <v>305800.2570498972</v>
+        <v>350976.7959199122</v>
       </c>
     </row>
     <row r="8">
@@ -4038,28 +4038,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>241.5317501022163</v>
+        <v>278.0333005972332</v>
       </c>
       <c r="AB8" t="n">
-        <v>330.4743961184757</v>
+        <v>380.4174278406696</v>
       </c>
       <c r="AC8" t="n">
-        <v>298.9343835767547</v>
+        <v>344.1109224467687</v>
       </c>
       <c r="AD8" t="n">
-        <v>241531.7501022163</v>
+        <v>278033.3005972332</v>
       </c>
       <c r="AE8" t="n">
-        <v>330474.3961184757</v>
+        <v>380417.4278406696</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.453764399886522e-06</v>
+        <v>4.540106570716037e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.19212962962963</v>
       </c>
       <c r="AH8" t="n">
-        <v>298934.3835767547</v>
+        <v>344110.9224467687</v>
       </c>
     </row>
     <row r="9">
@@ -4144,28 +4144,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>235.9575458058445</v>
+        <v>272.4590963008613</v>
       </c>
       <c r="AB9" t="n">
-        <v>322.847523883646</v>
+        <v>372.790555605836</v>
       </c>
       <c r="AC9" t="n">
-        <v>292.0354093236323</v>
+        <v>337.2119481936451</v>
       </c>
       <c r="AD9" t="n">
-        <v>235957.5458058444</v>
+        <v>272459.0963008613</v>
       </c>
       <c r="AE9" t="n">
-        <v>322847.523883646</v>
+        <v>372790.555605836</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.476925011597279e-06</v>
+        <v>4.582959766163274e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.13425925925926</v>
       </c>
       <c r="AH9" t="n">
-        <v>292035.4093236323</v>
+        <v>337211.9481936451</v>
       </c>
     </row>
     <row r="10">
@@ -4250,28 +4250,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>230.0898792511412</v>
+        <v>266.5914297461579</v>
       </c>
       <c r="AB10" t="n">
-        <v>314.8191236403263</v>
+        <v>364.7621553625121</v>
       </c>
       <c r="AC10" t="n">
-        <v>284.773228331602</v>
+        <v>329.9497672016136</v>
       </c>
       <c r="AD10" t="n">
-        <v>230089.8792511412</v>
+        <v>266591.429746158</v>
       </c>
       <c r="AE10" t="n">
-        <v>314819.1236403263</v>
+        <v>364762.1553625121</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.502186359064113e-06</v>
+        <v>4.629699872762187e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.07349537037037</v>
       </c>
       <c r="AH10" t="n">
-        <v>284773.2283316019</v>
+        <v>329949.7672016136</v>
       </c>
     </row>
     <row r="11">
@@ -4356,28 +4356,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>225.1469247961386</v>
+        <v>261.6484752911554</v>
       </c>
       <c r="AB11" t="n">
-        <v>308.0559552872351</v>
+        <v>357.9989870094174</v>
       </c>
       <c r="AC11" t="n">
-        <v>278.6555272739612</v>
+        <v>323.8320661439719</v>
       </c>
       <c r="AD11" t="n">
-        <v>225146.9247961387</v>
+        <v>261648.4752911554</v>
       </c>
       <c r="AE11" t="n">
-        <v>308055.9552872351</v>
+        <v>357998.9870094174</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.518046914022499e-06</v>
+        <v>4.659046051957346e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.03587962962963</v>
       </c>
       <c r="AH11" t="n">
-        <v>278655.5272739612</v>
+        <v>323832.0661439719</v>
       </c>
     </row>
     <row r="12">
@@ -4462,28 +4462,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>224.8945979411949</v>
+        <v>261.3961484362116</v>
       </c>
       <c r="AB12" t="n">
-        <v>307.710710552426</v>
+        <v>357.6537422746082</v>
       </c>
       <c r="AC12" t="n">
-        <v>278.3432322120882</v>
+        <v>323.5197710820987</v>
       </c>
       <c r="AD12" t="n">
-        <v>224894.5979411949</v>
+        <v>261396.1484362116</v>
       </c>
       <c r="AE12" t="n">
-        <v>307710.710552426</v>
+        <v>357653.7422746082</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.518256987598107e-06</v>
+        <v>4.659434743072514e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.03587962962963</v>
       </c>
       <c r="AH12" t="n">
-        <v>278343.2322120882</v>
+        <v>323519.7710820987</v>
       </c>
     </row>
   </sheetData>
@@ -4759,28 +4759,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>418.2342075087044</v>
+        <v>476.8821759716984</v>
       </c>
       <c r="AB2" t="n">
-        <v>572.2464939044258</v>
+        <v>652.4912317212556</v>
       </c>
       <c r="AC2" t="n">
-        <v>517.6320916791852</v>
+        <v>590.2183843429736</v>
       </c>
       <c r="AD2" t="n">
-        <v>418234.2075087044</v>
+        <v>476882.1759716984</v>
       </c>
       <c r="AE2" t="n">
-        <v>572246.4939044259</v>
+        <v>652491.2317212557</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.683020605230634e-06</v>
+        <v>3.208097018176531e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.340277777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>517632.0916791853</v>
+        <v>590218.3843429737</v>
       </c>
     </row>
     <row r="3">
@@ -4865,28 +4865,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>285.3765588275002</v>
+        <v>320.6677847342029</v>
       </c>
       <c r="AB3" t="n">
-        <v>390.4647977130099</v>
+        <v>438.7518099375644</v>
       </c>
       <c r="AC3" t="n">
-        <v>353.1993854400649</v>
+        <v>396.8779529891553</v>
       </c>
       <c r="AD3" t="n">
-        <v>285376.5588275002</v>
+        <v>320667.784734203</v>
       </c>
       <c r="AE3" t="n">
-        <v>390464.7977130099</v>
+        <v>438751.8099375644</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.191816782129881e-06</v>
+        <v>4.177941055080889e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.173032407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>353199.3854400649</v>
+        <v>396877.9529891553</v>
       </c>
     </row>
     <row r="4">
@@ -4971,28 +4971,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>246.0963406545586</v>
+        <v>293.065848330859</v>
       </c>
       <c r="AB4" t="n">
-        <v>336.7198702877101</v>
+        <v>400.9856228390169</v>
       </c>
       <c r="AC4" t="n">
-        <v>304.5837984568574</v>
+        <v>362.7161177821166</v>
       </c>
       <c r="AD4" t="n">
-        <v>246096.3406545586</v>
+        <v>293065.848330859</v>
       </c>
       <c r="AE4" t="n">
-        <v>336719.8702877101</v>
+        <v>400985.6228390168</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.380503287455144e-06</v>
+        <v>4.537606654671795e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.60300925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>304583.7984568574</v>
+        <v>362716.1177821166</v>
       </c>
     </row>
     <row r="5">
@@ -5077,28 +5077,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>231.9783697778988</v>
+        <v>267.1842548300328</v>
       </c>
       <c r="AB5" t="n">
-        <v>317.4030396933568</v>
+        <v>365.5732847958666</v>
       </c>
       <c r="AC5" t="n">
-        <v>287.110539063081</v>
+        <v>330.683483580276</v>
       </c>
       <c r="AD5" t="n">
-        <v>231978.3697778989</v>
+        <v>267184.2548300328</v>
       </c>
       <c r="AE5" t="n">
-        <v>317403.0396933568</v>
+        <v>365573.2847958666</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.480415318348653e-06</v>
+        <v>4.728054405218204e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.336805555555554</v>
       </c>
       <c r="AH5" t="n">
-        <v>287110.539063081</v>
+        <v>330683.483580276</v>
       </c>
     </row>
     <row r="6">
@@ -5183,28 +5183,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>221.5654028144773</v>
+        <v>256.771287866608</v>
       </c>
       <c r="AB6" t="n">
-        <v>303.1555589063302</v>
+        <v>351.3258040086621</v>
       </c>
       <c r="AC6" t="n">
-        <v>274.2228178458988</v>
+        <v>317.7957623630431</v>
       </c>
       <c r="AD6" t="n">
-        <v>221565.4028144773</v>
+        <v>256771.2878666079</v>
       </c>
       <c r="AE6" t="n">
-        <v>303155.5589063301</v>
+        <v>351325.8040086621</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.548381577537223e-06</v>
+        <v>4.857608584627424e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.168981481481482</v>
       </c>
       <c r="AH6" t="n">
-        <v>274222.8178458988</v>
+        <v>317795.7623630431</v>
       </c>
     </row>
     <row r="7">
@@ -5289,28 +5289,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>214.5179078172461</v>
+        <v>249.7237928693768</v>
       </c>
       <c r="AB7" t="n">
-        <v>293.5128653375872</v>
+        <v>341.6831104399192</v>
       </c>
       <c r="AC7" t="n">
-        <v>265.5004094177482</v>
+        <v>309.0733539348926</v>
       </c>
       <c r="AD7" t="n">
-        <v>214517.9078172461</v>
+        <v>249723.7928693768</v>
       </c>
       <c r="AE7" t="n">
-        <v>293512.8653375872</v>
+        <v>341683.1104399192</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.579458076542708e-06</v>
+        <v>4.916845187842511e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.09375</v>
       </c>
       <c r="AH7" t="n">
-        <v>265500.4094177482</v>
+        <v>309073.3539348926</v>
       </c>
     </row>
     <row r="8">
@@ -5395,28 +5395,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>207.7039867562872</v>
+        <v>242.9098718084178</v>
       </c>
       <c r="AB8" t="n">
-        <v>284.1897579330065</v>
+        <v>332.3600030353385</v>
       </c>
       <c r="AC8" t="n">
-        <v>257.0670862987943</v>
+        <v>300.6400308159386</v>
       </c>
       <c r="AD8" t="n">
-        <v>207703.9867562871</v>
+        <v>242909.8718084178</v>
       </c>
       <c r="AE8" t="n">
-        <v>284189.7579330065</v>
+        <v>332360.0030353385</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.609176336955297e-06</v>
+        <v>4.973492778679318e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.024305555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>257067.0862987943</v>
+        <v>300640.0308159386</v>
       </c>
     </row>
     <row r="9">
@@ -5501,28 +5501,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>206.9139964571226</v>
+        <v>242.1198815092532</v>
       </c>
       <c r="AB9" t="n">
-        <v>283.1088583537778</v>
+        <v>331.2791034561097</v>
       </c>
       <c r="AC9" t="n">
-        <v>256.0893462583547</v>
+        <v>299.6622907754991</v>
       </c>
       <c r="AD9" t="n">
-        <v>206913.9964571226</v>
+        <v>242119.8815092533</v>
       </c>
       <c r="AE9" t="n">
-        <v>283108.8583537778</v>
+        <v>331279.1034561098</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.616239177638362e-06</v>
+        <v>4.986955643046383e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.009837962962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>256089.3462583547</v>
+        <v>299662.2907754991</v>
       </c>
     </row>
   </sheetData>
@@ -5798,28 +5798,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>209.7899590391147</v>
+        <v>241.180376021238</v>
       </c>
       <c r="AB2" t="n">
-        <v>287.0438772369719</v>
+        <v>329.9936305993511</v>
       </c>
       <c r="AC2" t="n">
-        <v>259.6488124621717</v>
+        <v>298.4995016440166</v>
       </c>
       <c r="AD2" t="n">
-        <v>209789.9590391147</v>
+        <v>241180.376021238</v>
       </c>
       <c r="AE2" t="n">
-        <v>287043.8772369719</v>
+        <v>329993.6305993511</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.50158280167759e-06</v>
+        <v>5.327716696013753e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.01099537037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>259648.8124621717</v>
+        <v>298499.5016440165</v>
       </c>
     </row>
     <row r="3">
@@ -5904,28 +5904,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>164.6027726224756</v>
+        <v>195.9078487500272</v>
       </c>
       <c r="AB3" t="n">
-        <v>225.216775263788</v>
+        <v>268.0497615039695</v>
       </c>
       <c r="AC3" t="n">
-        <v>203.7224023264062</v>
+        <v>242.4674684763122</v>
       </c>
       <c r="AD3" t="n">
-        <v>164602.7726224755</v>
+        <v>195907.8487500272</v>
       </c>
       <c r="AE3" t="n">
-        <v>225216.7752637879</v>
+        <v>268049.7615039695</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.859202929321447e-06</v>
+        <v>6.08935397765841e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.13425925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>203722.4023264062</v>
+        <v>242467.4684763122</v>
       </c>
     </row>
     <row r="4">
@@ -6010,28 +6010,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>163.0232055672651</v>
+        <v>194.3282816948167</v>
       </c>
       <c r="AB4" t="n">
-        <v>223.0555419332697</v>
+        <v>265.8885281734512</v>
       </c>
       <c r="AC4" t="n">
-        <v>201.7674340716418</v>
+        <v>240.5125002215478</v>
       </c>
       <c r="AD4" t="n">
-        <v>163023.205567265</v>
+        <v>194328.2816948167</v>
       </c>
       <c r="AE4" t="n">
-        <v>223055.5419332697</v>
+        <v>265888.5281734512</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.877632581602127e-06</v>
+        <v>6.128604313922177e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.096643518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>201767.4340716418</v>
+        <v>240512.5002215478</v>
       </c>
     </row>
   </sheetData>
@@ -6307,28 +6307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>264.5870146086072</v>
+        <v>308.4741987934086</v>
       </c>
       <c r="AB2" t="n">
-        <v>362.0196261427603</v>
+        <v>422.068007710324</v>
       </c>
       <c r="AC2" t="n">
-        <v>327.4689811214309</v>
+        <v>381.7864294306192</v>
       </c>
       <c r="AD2" t="n">
-        <v>264587.0146086072</v>
+        <v>308474.1987934086</v>
       </c>
       <c r="AE2" t="n">
-        <v>362019.6261427603</v>
+        <v>422068.007710324</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.178248301616743e-06</v>
+        <v>4.422597141688109e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.705439814814814</v>
       </c>
       <c r="AH2" t="n">
-        <v>327468.9811214309</v>
+        <v>381786.4294306192</v>
       </c>
     </row>
     <row r="3">
@@ -6413,28 +6413,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>202.7533345235549</v>
+        <v>235.583471316135</v>
       </c>
       <c r="AB3" t="n">
-        <v>277.4160571408235</v>
+        <v>322.3356986638239</v>
       </c>
       <c r="AC3" t="n">
-        <v>250.9398580032663</v>
+        <v>291.5724319844387</v>
       </c>
       <c r="AD3" t="n">
-        <v>202753.3345235549</v>
+        <v>235583.471316135</v>
       </c>
       <c r="AE3" t="n">
-        <v>277416.0571408235</v>
+        <v>322335.6986638239</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.591940328227111e-06</v>
+        <v>5.262534982139179e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.475694444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>250939.8580032663</v>
+        <v>291572.4319844387</v>
       </c>
     </row>
     <row r="4">
@@ -6519,28 +6519,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>184.5100431669252</v>
+        <v>217.3401799595052</v>
       </c>
       <c r="AB4" t="n">
-        <v>252.4547810694831</v>
+        <v>297.3744225924835</v>
       </c>
       <c r="AC4" t="n">
-        <v>228.3608510867957</v>
+        <v>268.9934250679681</v>
       </c>
       <c r="AD4" t="n">
-        <v>184510.0431669252</v>
+        <v>217340.1799595052</v>
       </c>
       <c r="AE4" t="n">
-        <v>252454.7810694831</v>
+        <v>297374.4225924835</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.743718266491424e-06</v>
+        <v>5.570696671254622e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.116898148148149</v>
       </c>
       <c r="AH4" t="n">
-        <v>228360.8510867957</v>
+        <v>268993.4250679681</v>
       </c>
     </row>
     <row r="5">
@@ -6625,28 +6625,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>178.2266391212532</v>
+        <v>211.0567759138332</v>
       </c>
       <c r="AB5" t="n">
-        <v>243.8575504499766</v>
+        <v>288.7771919729769</v>
       </c>
       <c r="AC5" t="n">
-        <v>220.5841280913232</v>
+        <v>261.2167020724955</v>
       </c>
       <c r="AD5" t="n">
-        <v>178226.6391212532</v>
+        <v>211056.7759138332</v>
       </c>
       <c r="AE5" t="n">
-        <v>243857.5504499766</v>
+        <v>288777.1919729769</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.791043752782473e-06</v>
+        <v>5.666783770344495e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.012731481481482</v>
       </c>
       <c r="AH5" t="n">
-        <v>220584.1280913232</v>
+        <v>261216.7020724955</v>
       </c>
     </row>
   </sheetData>
@@ -6922,28 +6922,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>161.2738515445849</v>
+        <v>191.4986572901366</v>
       </c>
       <c r="AB2" t="n">
-        <v>220.6619985833873</v>
+        <v>262.0169112287515</v>
       </c>
       <c r="AC2" t="n">
-        <v>199.6023271397123</v>
+        <v>237.0103849642005</v>
       </c>
       <c r="AD2" t="n">
-        <v>161273.8515445849</v>
+        <v>191498.6572901366</v>
       </c>
       <c r="AE2" t="n">
-        <v>220661.9985833873</v>
+        <v>262016.9112287515</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.795367231753561e-06</v>
+        <v>6.224736822691111e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.516203703703703</v>
       </c>
       <c r="AH2" t="n">
-        <v>199602.3271397123</v>
+        <v>237010.3849642005</v>
       </c>
     </row>
     <row r="3">
@@ -7028,28 +7028,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>151.1147989189382</v>
+        <v>181.1690124638977</v>
       </c>
       <c r="AB3" t="n">
-        <v>206.7619345952139</v>
+        <v>247.8834354657313</v>
       </c>
       <c r="AC3" t="n">
-        <v>187.0288657497034</v>
+        <v>224.2257882915406</v>
       </c>
       <c r="AD3" t="n">
-        <v>151114.7989189382</v>
+        <v>181169.0124638977</v>
       </c>
       <c r="AE3" t="n">
-        <v>206761.9345952139</v>
+        <v>247883.4354657313</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.923056146454919e-06</v>
+        <v>6.509075095016213e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.232638888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>187028.8657497034</v>
+        <v>224225.7882915406</v>
       </c>
     </row>
   </sheetData>
@@ -7325,28 +7325,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>443.6257909414812</v>
+        <v>503.0119425794404</v>
       </c>
       <c r="AB2" t="n">
-        <v>606.9883785547526</v>
+        <v>688.243131157913</v>
       </c>
       <c r="AC2" t="n">
-        <v>549.058259619026</v>
+        <v>622.5581726755025</v>
       </c>
       <c r="AD2" t="n">
-        <v>443625.7909414812</v>
+        <v>503011.9425794404</v>
       </c>
       <c r="AE2" t="n">
-        <v>606988.3785547526</v>
+        <v>688243.131157913</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.615945099253361e-06</v>
+        <v>3.055370284157365e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.641203703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>549058.259619026</v>
+        <v>622558.1726755025</v>
       </c>
     </row>
     <row r="3">
@@ -7431,28 +7431,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>297.7314791616002</v>
+        <v>345.0698082713754</v>
       </c>
       <c r="AB3" t="n">
-        <v>407.3693447747423</v>
+        <v>472.1397350824238</v>
       </c>
       <c r="AC3" t="n">
-        <v>368.4905862559065</v>
+        <v>427.0793814184365</v>
       </c>
       <c r="AD3" t="n">
-        <v>297731.4791616002</v>
+        <v>345069.8082713754</v>
       </c>
       <c r="AE3" t="n">
-        <v>407369.3447747423</v>
+        <v>472139.7350824238</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.133900380458749e-06</v>
+        <v>4.034701311831835e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.300347222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>368490.5862559064</v>
+        <v>427079.3814184365</v>
       </c>
     </row>
     <row r="4">
@@ -7537,28 +7537,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>255.6053906632359</v>
+        <v>303.0289711190348</v>
       </c>
       <c r="AB4" t="n">
-        <v>349.7305720192547</v>
+        <v>414.6176069797551</v>
       </c>
       <c r="AC4" t="n">
-        <v>316.3527770757821</v>
+        <v>375.0470844890727</v>
       </c>
       <c r="AD4" t="n">
-        <v>255605.3906632359</v>
+        <v>303028.9711190348</v>
       </c>
       <c r="AE4" t="n">
-        <v>349730.5720192547</v>
+        <v>414617.6069797551</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.333490840690389e-06</v>
+        <v>4.412079702641528e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.675347222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>316352.7770757821</v>
+        <v>375047.0844890727</v>
       </c>
     </row>
     <row r="5">
@@ -7643,28 +7643,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>241.0991650262486</v>
+        <v>276.6456046630066</v>
       </c>
       <c r="AB5" t="n">
-        <v>329.8825141332303</v>
+        <v>378.5187210426368</v>
       </c>
       <c r="AC5" t="n">
-        <v>298.3989899774694</v>
+        <v>342.3934255606883</v>
       </c>
       <c r="AD5" t="n">
-        <v>241099.1650262486</v>
+        <v>276645.6046630066</v>
       </c>
       <c r="AE5" t="n">
-        <v>329882.5141332303</v>
+        <v>378518.7210426368</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.430943965324667e-06</v>
+        <v>4.596340530093793e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.409143518518518</v>
       </c>
       <c r="AH5" t="n">
-        <v>298398.9899774694</v>
+        <v>342393.4255606884</v>
       </c>
     </row>
     <row r="6">
@@ -7749,28 +7749,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>231.0098735805776</v>
+        <v>266.5563132173355</v>
       </c>
       <c r="AB6" t="n">
-        <v>316.0779004691459</v>
+        <v>364.7141073785452</v>
       </c>
       <c r="AC6" t="n">
-        <v>285.9118692665838</v>
+        <v>329.9063048498007</v>
       </c>
       <c r="AD6" t="n">
-        <v>231009.8735805776</v>
+        <v>266556.3132173354</v>
       </c>
       <c r="AE6" t="n">
-        <v>316077.9004691459</v>
+        <v>364714.1073785452</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.497653590419623e-06</v>
+        <v>4.722472665570785e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.238425925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>285911.8692665838</v>
+        <v>329906.3048498007</v>
       </c>
     </row>
     <row r="7">
@@ -7855,28 +7855,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>223.4061490703974</v>
+        <v>258.9525887071551</v>
       </c>
       <c r="AB7" t="n">
-        <v>305.6741491416721</v>
+        <v>354.3103560510662</v>
       </c>
       <c r="AC7" t="n">
-        <v>276.5010373640442</v>
+        <v>320.4954729472595</v>
       </c>
       <c r="AD7" t="n">
-        <v>223406.1490703974</v>
+        <v>258952.5887071551</v>
       </c>
       <c r="AE7" t="n">
-        <v>305674.1491416721</v>
+        <v>354310.3560510662</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.538088560917051e-06</v>
+        <v>4.798925638729157e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.137152777777779</v>
       </c>
       <c r="AH7" t="n">
-        <v>276501.0373640442</v>
+        <v>320495.4729472595</v>
       </c>
     </row>
     <row r="8">
@@ -7961,28 +7961,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>215.7400131749583</v>
+        <v>251.2864528117127</v>
       </c>
       <c r="AB8" t="n">
-        <v>295.1850038034914</v>
+        <v>343.8212107127133</v>
       </c>
       <c r="AC8" t="n">
-        <v>267.012961335328</v>
+        <v>311.0073969184944</v>
       </c>
       <c r="AD8" t="n">
-        <v>215740.0131749583</v>
+        <v>251286.4528117127</v>
       </c>
       <c r="AE8" t="n">
-        <v>295185.0038034914</v>
+        <v>343821.2107127133</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.56899358497234e-06</v>
+        <v>4.857359735390814e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.064814814814816</v>
       </c>
       <c r="AH8" t="n">
-        <v>267012.961335328</v>
+        <v>311007.3969184944</v>
       </c>
     </row>
     <row r="9">
@@ -8067,28 +8067,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>211.0095689919474</v>
+        <v>246.556008628702</v>
       </c>
       <c r="AB9" t="n">
-        <v>288.7126013798306</v>
+        <v>337.3488082890526</v>
       </c>
       <c r="AC9" t="n">
-        <v>261.1582759149056</v>
+        <v>305.152711498072</v>
       </c>
       <c r="AD9" t="n">
-        <v>211009.5689919475</v>
+        <v>246556.008628702</v>
       </c>
       <c r="AE9" t="n">
-        <v>288712.6013798306</v>
+        <v>337348.8082890526</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.59219927376647e-06</v>
+        <v>4.901236208668121e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.009837962962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>261158.2759149056</v>
+        <v>305152.711498072</v>
       </c>
     </row>
     <row r="10">
@@ -8173,28 +8173,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>211.8153253368838</v>
+        <v>247.3617649736383</v>
       </c>
       <c r="AB10" t="n">
-        <v>289.8150727584331</v>
+        <v>338.4512796676551</v>
       </c>
       <c r="AC10" t="n">
-        <v>262.1555289724629</v>
+        <v>306.1499645556293</v>
       </c>
       <c r="AD10" t="n">
-        <v>211815.3253368838</v>
+        <v>247361.7649736383</v>
       </c>
       <c r="AE10" t="n">
-        <v>289815.0727584331</v>
+        <v>338451.2796676551</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.591176285165336e-06</v>
+        <v>4.899301978987683e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.012731481481482</v>
       </c>
       <c r="AH10" t="n">
-        <v>262155.5289724629</v>
+        <v>306149.9645556293</v>
       </c>
     </row>
   </sheetData>
@@ -8470,28 +8470,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.7724525471504</v>
+        <v>173.0859681555257</v>
       </c>
       <c r="AB2" t="n">
-        <v>196.7158123678782</v>
+        <v>236.8238576442748</v>
       </c>
       <c r="AC2" t="n">
-        <v>177.9415313279203</v>
+        <v>214.2217210551455</v>
       </c>
       <c r="AD2" t="n">
-        <v>143772.4525471503</v>
+        <v>173085.9681555257</v>
       </c>
       <c r="AE2" t="n">
-        <v>196715.8123678782</v>
+        <v>236823.8576442748</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.932251001756461e-06</v>
+        <v>6.722381143957041e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.357060185185184</v>
       </c>
       <c r="AH2" t="n">
-        <v>177941.5313279203</v>
+        <v>214221.7210551455</v>
       </c>
     </row>
     <row r="3">
@@ -8576,28 +8576,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>144.3991923706859</v>
+        <v>173.7127079790612</v>
       </c>
       <c r="AB3" t="n">
-        <v>197.5733454442486</v>
+        <v>237.6813907206453</v>
       </c>
       <c r="AC3" t="n">
-        <v>178.7172226510374</v>
+        <v>214.9974123782627</v>
       </c>
       <c r="AD3" t="n">
-        <v>144399.1923706859</v>
+        <v>173712.7079790612</v>
       </c>
       <c r="AE3" t="n">
-        <v>197573.3454442486</v>
+        <v>237681.3907206453</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.936181546751893e-06</v>
+        <v>6.731392180715812e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.34837962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>178717.2226510374</v>
+        <v>214997.4123782627</v>
       </c>
     </row>
   </sheetData>
@@ -8873,28 +8873,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>336.9564395280265</v>
+        <v>382.4523508486339</v>
       </c>
       <c r="AB2" t="n">
-        <v>461.0386660312067</v>
+        <v>523.2881790380126</v>
       </c>
       <c r="AC2" t="n">
-        <v>417.0377828170194</v>
+        <v>473.3462896701959</v>
       </c>
       <c r="AD2" t="n">
-        <v>336956.4395280265</v>
+        <v>382452.3508486339</v>
       </c>
       <c r="AE2" t="n">
-        <v>461038.6660312067</v>
+        <v>523288.1790380125</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.908734668612529e-06</v>
+        <v>3.741093571893068e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.486689814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>417037.7828170194</v>
+        <v>473346.2896701958</v>
       </c>
     </row>
     <row r="3">
@@ -8979,28 +8979,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>238.0345831493024</v>
+        <v>283.5304049613617</v>
       </c>
       <c r="AB3" t="n">
-        <v>325.6894180093843</v>
+        <v>387.938808546799</v>
       </c>
       <c r="AC3" t="n">
-        <v>294.6060770626345</v>
+        <v>350.9144731346291</v>
       </c>
       <c r="AD3" t="n">
-        <v>238034.5831493024</v>
+        <v>283530.4049613617</v>
       </c>
       <c r="AE3" t="n">
-        <v>325689.4180093842</v>
+        <v>387938.808546799</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.376360388474962e-06</v>
+        <v>4.657633520266765e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.81712962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>294606.0770626345</v>
+        <v>350914.4731346291</v>
       </c>
     </row>
     <row r="4">
@@ -9085,28 +9085,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>216.258891423561</v>
+        <v>250.359512077511</v>
       </c>
       <c r="AB4" t="n">
-        <v>295.894955914522</v>
+        <v>342.55292950644</v>
       </c>
       <c r="AC4" t="n">
-        <v>267.6551566133062</v>
+        <v>309.8601586905036</v>
       </c>
       <c r="AD4" t="n">
-        <v>216258.891423561</v>
+        <v>250359.512077511</v>
       </c>
       <c r="AE4" t="n">
-        <v>295894.955914522</v>
+        <v>342552.92950644</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.548879237962155e-06</v>
+        <v>4.995768081062519e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.354166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>267655.1566133062</v>
+        <v>309860.1586905036</v>
       </c>
     </row>
     <row r="5">
@@ -9191,28 +9191,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>203.6518845504781</v>
+        <v>237.7525052044281</v>
       </c>
       <c r="AB5" t="n">
-        <v>278.6454929288887</v>
+        <v>325.3034665208066</v>
       </c>
       <c r="AC5" t="n">
-        <v>252.0519581652429</v>
+        <v>294.2569602424404</v>
       </c>
       <c r="AD5" t="n">
-        <v>203651.8845504781</v>
+        <v>237752.5052044281</v>
       </c>
       <c r="AE5" t="n">
-        <v>278645.4929288887</v>
+        <v>325303.4665208067</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.637881499702791e-06</v>
+        <v>5.170211284068766e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.140046296296297</v>
       </c>
       <c r="AH5" t="n">
-        <v>252051.9581652429</v>
+        <v>294256.9602424403</v>
       </c>
     </row>
     <row r="6">
@@ -9297,28 +9297,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>193.8443413139921</v>
+        <v>227.9449619679421</v>
       </c>
       <c r="AB6" t="n">
-        <v>265.2263795944647</v>
+        <v>311.8843531863827</v>
       </c>
       <c r="AC6" t="n">
-        <v>239.9135461736082</v>
+        <v>282.1185482508056</v>
       </c>
       <c r="AD6" t="n">
-        <v>193844.3413139921</v>
+        <v>227944.9619679421</v>
       </c>
       <c r="AE6" t="n">
-        <v>265226.3795944647</v>
+        <v>311884.3531863827</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.690107355177012e-06</v>
+        <v>5.272573239040355e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.021412037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>239913.5461736082</v>
+        <v>282118.5482508056</v>
       </c>
     </row>
     <row r="7">
@@ -9403,28 +9403,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>193.2625390841678</v>
+        <v>227.3631597381178</v>
       </c>
       <c r="AB7" t="n">
-        <v>264.4303321163165</v>
+        <v>311.0883057082345</v>
       </c>
       <c r="AC7" t="n">
-        <v>239.1934723495146</v>
+        <v>281.398474426712</v>
       </c>
       <c r="AD7" t="n">
-        <v>193262.5390841678</v>
+        <v>227363.1597381178</v>
       </c>
       <c r="AE7" t="n">
-        <v>264430.3321163165</v>
+        <v>311088.3057082345</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.695649005436334e-06</v>
+        <v>5.283434796963385e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.009837962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>239193.4723495146</v>
+        <v>281398.474426712</v>
       </c>
     </row>
   </sheetData>
@@ -9700,28 +9700,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>393.0738681378172</v>
+        <v>439.6574667103866</v>
       </c>
       <c r="AB2" t="n">
-        <v>537.8210075813445</v>
+        <v>601.5587422716596</v>
       </c>
       <c r="AC2" t="n">
-        <v>486.4921254543052</v>
+        <v>544.146820202249</v>
       </c>
       <c r="AD2" t="n">
-        <v>393073.8681378172</v>
+        <v>439657.4667103866</v>
       </c>
       <c r="AE2" t="n">
-        <v>537821.0075813445</v>
+        <v>601558.7422716597</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.757197788482958e-06</v>
+        <v>3.378569602260526e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.030671296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>486492.1254543052</v>
+        <v>544146.8202022491</v>
       </c>
     </row>
     <row r="3">
@@ -9806,28 +9806,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>272.8006873235764</v>
+        <v>307.7384086301412</v>
       </c>
       <c r="AB3" t="n">
-        <v>373.257935513047</v>
+        <v>421.0612671481704</v>
       </c>
       <c r="AC3" t="n">
-        <v>337.6347220184838</v>
+        <v>380.8757707747483</v>
       </c>
       <c r="AD3" t="n">
-        <v>272800.6873235764</v>
+        <v>307738.4086301412</v>
       </c>
       <c r="AE3" t="n">
-        <v>373257.935513047</v>
+        <v>421061.2671481704</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.253440667168117e-06</v>
+        <v>4.332697314150824e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.042824074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>337634.7220184838</v>
+        <v>380875.7707747483</v>
       </c>
     </row>
     <row r="4">
@@ -9912,28 +9912,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>236.1877923713686</v>
+        <v>271.2107650239568</v>
       </c>
       <c r="AB4" t="n">
-        <v>323.1625573923575</v>
+        <v>371.0825336802862</v>
       </c>
       <c r="AC4" t="n">
-        <v>292.3203764764248</v>
+        <v>335.666937483446</v>
       </c>
       <c r="AD4" t="n">
-        <v>236187.7923713686</v>
+        <v>271210.7650239568</v>
       </c>
       <c r="AE4" t="n">
-        <v>323162.5573923575</v>
+        <v>371082.5336802862</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.435034408472997e-06</v>
+        <v>4.681848160091227e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.516203703703703</v>
       </c>
       <c r="AH4" t="n">
-        <v>292320.3764764248</v>
+        <v>335666.937483446</v>
       </c>
     </row>
     <row r="5">
@@ -10018,28 +10018,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>222.5274602623153</v>
+        <v>257.3798407143081</v>
       </c>
       <c r="AB5" t="n">
-        <v>304.4718883494406</v>
+        <v>352.1584528623418</v>
       </c>
       <c r="AC5" t="n">
-        <v>275.4135186544392</v>
+        <v>318.5489443787579</v>
       </c>
       <c r="AD5" t="n">
-        <v>222527.4602623153</v>
+        <v>257379.8407143081</v>
       </c>
       <c r="AE5" t="n">
-        <v>304471.8883494406</v>
+        <v>352158.4528623418</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.530794804824046e-06</v>
+        <v>4.865966969215946e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.27025462962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>275413.5186544392</v>
+        <v>318548.9443787579</v>
       </c>
     </row>
     <row r="6">
@@ -10124,28 +10124,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>210.5293217347912</v>
+        <v>245.3817021867838</v>
       </c>
       <c r="AB6" t="n">
-        <v>288.0555058955759</v>
+        <v>335.7420704084772</v>
       </c>
       <c r="AC6" t="n">
-        <v>260.5638927014286</v>
+        <v>303.6993184257473</v>
       </c>
       <c r="AD6" t="n">
-        <v>210529.3217347912</v>
+        <v>245381.7021867838</v>
       </c>
       <c r="AE6" t="n">
-        <v>288055.5058955759</v>
+        <v>335742.0704084772</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.611253282170545e-06</v>
+        <v>5.020664731521767e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.076388888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>260563.8927014286</v>
+        <v>303699.3184257473</v>
       </c>
     </row>
     <row r="7">
@@ -10230,28 +10230,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>204.6039734066637</v>
+        <v>239.4563538586564</v>
       </c>
       <c r="AB7" t="n">
-        <v>279.9481829051171</v>
+        <v>327.6347474180183</v>
       </c>
       <c r="AC7" t="n">
-        <v>253.2303212384774</v>
+        <v>296.365746962796</v>
       </c>
       <c r="AD7" t="n">
-        <v>204603.9734066637</v>
+        <v>239456.3538586564</v>
       </c>
       <c r="AE7" t="n">
-        <v>279948.182905117</v>
+        <v>327634.7474180183</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.62984593644489e-06</v>
+        <v>5.05641288518344e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.03587962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>253230.3212384774</v>
+        <v>296365.746962796</v>
       </c>
     </row>
     <row r="8">
@@ -10336,28 +10336,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>202.0812388481636</v>
+        <v>236.9336193001562</v>
       </c>
       <c r="AB8" t="n">
-        <v>276.496466186985</v>
+        <v>324.1830306998862</v>
       </c>
       <c r="AC8" t="n">
-        <v>250.1080315194079</v>
+        <v>293.2434572437266</v>
       </c>
       <c r="AD8" t="n">
-        <v>202081.2388481636</v>
+        <v>236933.6193001562</v>
       </c>
       <c r="AE8" t="n">
-        <v>276496.466186985</v>
+        <v>324183.0306998862</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.6447090907468e-06</v>
+        <v>5.084990317756635e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.001157407407407</v>
       </c>
       <c r="AH8" t="n">
-        <v>250108.0315194079</v>
+        <v>293243.4572437266</v>
       </c>
     </row>
   </sheetData>
@@ -10633,28 +10633,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>512.9335527582929</v>
+        <v>573.3125786091201</v>
       </c>
       <c r="AB2" t="n">
-        <v>701.818315915168</v>
+        <v>784.4315628188932</v>
       </c>
       <c r="AC2" t="n">
-        <v>634.8377608524165</v>
+        <v>709.5665154200705</v>
       </c>
       <c r="AD2" t="n">
-        <v>512933.5527582929</v>
+        <v>573312.5786091201</v>
       </c>
       <c r="AE2" t="n">
-        <v>701818.315915168</v>
+        <v>784431.5628188932</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.485923116866822e-06</v>
+        <v>2.768162064767785e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.30960648148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>634837.7608524165</v>
+        <v>709566.5154200705</v>
       </c>
     </row>
     <row r="3">
@@ -10739,28 +10739,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>322.7275887069732</v>
+        <v>371.0990104644514</v>
       </c>
       <c r="AB3" t="n">
-        <v>441.5701246052465</v>
+        <v>507.7540378503462</v>
       </c>
       <c r="AC3" t="n">
-        <v>399.4272916604833</v>
+        <v>459.2947051151763</v>
       </c>
       <c r="AD3" t="n">
-        <v>322727.5887069732</v>
+        <v>371099.0104644514</v>
       </c>
       <c r="AE3" t="n">
-        <v>441570.1246052465</v>
+        <v>507754.0378503462</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.028592890318024e-06</v>
+        <v>3.779114693145517e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.552083333333335</v>
       </c>
       <c r="AH3" t="n">
-        <v>399427.2916604833</v>
+        <v>459294.7051151763</v>
       </c>
     </row>
     <row r="4">
@@ -10845,28 +10845,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>275.6978747144728</v>
+        <v>323.9839556173794</v>
       </c>
       <c r="AB4" t="n">
-        <v>377.2219951161585</v>
+        <v>443.2891412390605</v>
       </c>
       <c r="AC4" t="n">
-        <v>341.2204573366669</v>
+        <v>400.982247759421</v>
       </c>
       <c r="AD4" t="n">
-        <v>275697.8747144728</v>
+        <v>323983.9556173794</v>
       </c>
       <c r="AE4" t="n">
-        <v>377221.9951161585</v>
+        <v>443289.1412390605</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.234840225930733e-06</v>
+        <v>4.16333783626908e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.854745370370371</v>
       </c>
       <c r="AH4" t="n">
-        <v>341220.4573366669</v>
+        <v>400982.247759421</v>
       </c>
     </row>
     <row r="5">
@@ -10951,28 +10951,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>258.5472216820455</v>
+        <v>294.9111288547257</v>
       </c>
       <c r="AB5" t="n">
-        <v>353.7557150037802</v>
+        <v>403.5104170598027</v>
       </c>
       <c r="AC5" t="n">
-        <v>319.993766063083</v>
+        <v>364.9999491860415</v>
       </c>
       <c r="AD5" t="n">
-        <v>258547.2216820455</v>
+        <v>294911.1288547257</v>
       </c>
       <c r="AE5" t="n">
-        <v>353755.7150037802</v>
+        <v>403510.4170598027</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.346910454239795e-06</v>
+        <v>4.372116171482783e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.527777777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>319993.766063083</v>
+        <v>364999.9491860415</v>
       </c>
     </row>
     <row r="6">
@@ -11057,28 +11057,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>248.2751966724735</v>
+        <v>284.4685116445647</v>
       </c>
       <c r="AB6" t="n">
-        <v>339.7010772157632</v>
+        <v>389.2223674971032</v>
       </c>
       <c r="AC6" t="n">
-        <v>307.2804831798483</v>
+        <v>352.0755310202026</v>
       </c>
       <c r="AD6" t="n">
-        <v>248275.1966724735</v>
+        <v>284468.5116445647</v>
       </c>
       <c r="AE6" t="n">
-        <v>339701.0772157632</v>
+        <v>389222.3674971032</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.410701018770934e-06</v>
+        <v>4.490953154918074e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.354166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>307280.4831798483</v>
+        <v>352075.5310202026</v>
       </c>
     </row>
     <row r="7">
@@ -11163,28 +11163,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>237.7917017309503</v>
+        <v>273.9850167030413</v>
       </c>
       <c r="AB7" t="n">
-        <v>325.3570969376231</v>
+        <v>374.8783872189557</v>
       </c>
       <c r="AC7" t="n">
-        <v>294.3054722475466</v>
+        <v>339.1005200878987</v>
       </c>
       <c r="AD7" t="n">
-        <v>237791.7017309503</v>
+        <v>273985.0167030413</v>
       </c>
       <c r="AE7" t="n">
-        <v>325357.0969376231</v>
+        <v>374878.3872189557</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.474544521529899e-06</v>
+        <v>4.60988875825663e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.189236111111112</v>
       </c>
       <c r="AH7" t="n">
-        <v>294305.4722475465</v>
+        <v>339100.5200878987</v>
       </c>
     </row>
     <row r="8">
@@ -11269,28 +11269,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>233.4374531878412</v>
+        <v>269.6307681599321</v>
       </c>
       <c r="AB8" t="n">
-        <v>319.3994219850559</v>
+        <v>368.9207122663853</v>
       </c>
       <c r="AC8" t="n">
-        <v>288.9163894308011</v>
+        <v>333.7114372711524</v>
       </c>
       <c r="AD8" t="n">
-        <v>233437.4531878412</v>
+        <v>269630.7681599321</v>
       </c>
       <c r="AE8" t="n">
-        <v>319399.4219850559</v>
+        <v>368920.7122663853</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.491431816206606e-06</v>
+        <v>4.64134850739842e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.148726851851852</v>
       </c>
       <c r="AH8" t="n">
-        <v>288916.3894308012</v>
+        <v>333711.4372711524</v>
       </c>
     </row>
     <row r="9">
@@ -11375,28 +11375,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>227.452678782876</v>
+        <v>263.6459937549668</v>
       </c>
       <c r="AB9" t="n">
-        <v>311.2107896145742</v>
+        <v>360.7320798958994</v>
       </c>
       <c r="AC9" t="n">
-        <v>281.5092686409379</v>
+        <v>326.3043164812879</v>
       </c>
       <c r="AD9" t="n">
-        <v>227452.678782876</v>
+        <v>263645.9937549668</v>
       </c>
       <c r="AE9" t="n">
-        <v>311210.7896145742</v>
+        <v>360732.0798958994</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.515148142272955e-06</v>
+        <v>4.6855302240615e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.090856481481482</v>
       </c>
       <c r="AH9" t="n">
-        <v>281509.2686409379</v>
+        <v>326304.3164812879</v>
       </c>
     </row>
     <row r="10">
@@ -11481,28 +11481,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>221.3515786080827</v>
+        <v>257.5448935801703</v>
       </c>
       <c r="AB10" t="n">
-        <v>302.862995193883</v>
+        <v>352.3842854750329</v>
       </c>
       <c r="AC10" t="n">
-        <v>273.9581760035517</v>
+        <v>318.753223843852</v>
       </c>
       <c r="AD10" t="n">
-        <v>221351.5786080827</v>
+        <v>257544.8935801703</v>
       </c>
       <c r="AE10" t="n">
-        <v>302862.995193883</v>
+        <v>352384.2854750329</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.53955266530105e-06</v>
+        <v>4.730993999467035e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.032986111111112</v>
       </c>
       <c r="AH10" t="n">
-        <v>273958.1760035518</v>
+        <v>318753.2238438519</v>
       </c>
     </row>
     <row r="11">
@@ -11587,28 +11587,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>219.502304280278</v>
+        <v>255.6956192523656</v>
       </c>
       <c r="AB11" t="n">
-        <v>300.3327364743565</v>
+        <v>349.8540267555064</v>
       </c>
       <c r="AC11" t="n">
-        <v>271.6694016249756</v>
+        <v>316.4644494652758</v>
       </c>
       <c r="AD11" t="n">
-        <v>219502.304280278</v>
+        <v>255695.6192523656</v>
       </c>
       <c r="AE11" t="n">
-        <v>300332.7364743565</v>
+        <v>349854.0267555064</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.545640561501117e-06</v>
+        <v>4.742335288342602e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.018518518518519</v>
       </c>
       <c r="AH11" t="n">
-        <v>271669.4016249756</v>
+        <v>316464.4494652758</v>
       </c>
     </row>
   </sheetData>
@@ -11884,28 +11884,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>284.331456681631</v>
+        <v>339.763192418033</v>
       </c>
       <c r="AB2" t="n">
-        <v>389.0348428503791</v>
+        <v>464.878989160512</v>
       </c>
       <c r="AC2" t="n">
-        <v>351.9059034625694</v>
+        <v>420.5115908967911</v>
       </c>
       <c r="AD2" t="n">
-        <v>284331.456681631</v>
+        <v>339763.192418033</v>
       </c>
       <c r="AE2" t="n">
-        <v>389034.8428503791</v>
+        <v>464878.989160512</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.081402304447758e-06</v>
+        <v>4.172165413882255e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.962962962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>351905.9034625694</v>
+        <v>420511.5908967911</v>
       </c>
     </row>
     <row r="3">
@@ -11990,28 +11990,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>214.1295032872688</v>
+        <v>247.5762946091671</v>
       </c>
       <c r="AB3" t="n">
-        <v>292.9814331244739</v>
+        <v>338.744808579365</v>
       </c>
       <c r="AC3" t="n">
-        <v>265.0196963491845</v>
+        <v>306.4154794799762</v>
       </c>
       <c r="AD3" t="n">
-        <v>214129.5032872688</v>
+        <v>247576.2946091671</v>
       </c>
       <c r="AE3" t="n">
-        <v>292981.433124474</v>
+        <v>338744.808579365</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.519869575802683e-06</v>
+        <v>5.051071899551641e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.576967592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>265019.6963491845</v>
+        <v>306415.4794799762</v>
       </c>
     </row>
     <row r="4">
@@ -12096,28 +12096,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>195.5000790677367</v>
+        <v>228.7762781890428</v>
       </c>
       <c r="AB4" t="n">
-        <v>267.4918330351311</v>
+        <v>313.0217967151752</v>
       </c>
       <c r="AC4" t="n">
-        <v>241.962787917482</v>
+        <v>283.1474357656226</v>
       </c>
       <c r="AD4" t="n">
-        <v>195500.0790677367</v>
+        <v>228776.2781890428</v>
       </c>
       <c r="AE4" t="n">
-        <v>267491.8330351311</v>
+        <v>313021.7967151753</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.676964106278984e-06</v>
+        <v>5.365967470370754e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.189236111111112</v>
       </c>
       <c r="AH4" t="n">
-        <v>241962.787917482</v>
+        <v>283147.4357656226</v>
       </c>
     </row>
     <row r="5">
@@ -12202,28 +12202,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>171.086715520766</v>
+        <v>215.3979677680584</v>
       </c>
       <c r="AB5" t="n">
-        <v>234.0883919885968</v>
+        <v>294.7170021877927</v>
       </c>
       <c r="AC5" t="n">
-        <v>211.7473244023943</v>
+        <v>266.5896251369872</v>
       </c>
       <c r="AD5" t="n">
-        <v>171086.715520766</v>
+        <v>215397.9677680584</v>
       </c>
       <c r="AE5" t="n">
-        <v>234088.3919885968</v>
+        <v>294717.0021877927</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.769514146836659e-06</v>
+        <v>5.551483781870457e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.983796296296297</v>
       </c>
       <c r="AH5" t="n">
-        <v>211747.3244023943</v>
+        <v>266589.6251369872</v>
       </c>
     </row>
     <row r="6">
@@ -12308,28 +12308,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>184.1766285015287</v>
+        <v>217.4528276228348</v>
       </c>
       <c r="AB6" t="n">
-        <v>251.998588415071</v>
+        <v>297.5285520951152</v>
       </c>
       <c r="AC6" t="n">
-        <v>227.9481968190501</v>
+        <v>269.1328446671908</v>
       </c>
       <c r="AD6" t="n">
-        <v>184176.6285015287</v>
+        <v>217452.8276228348</v>
       </c>
       <c r="AE6" t="n">
-        <v>251998.588415071</v>
+        <v>297528.5520951152</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.746319365632538e-06</v>
+        <v>5.504989904297821e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.032986111111112</v>
       </c>
       <c r="AH6" t="n">
-        <v>227948.1968190501</v>
+        <v>269132.8446671908</v>
       </c>
     </row>
   </sheetData>
@@ -12605,28 +12605,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>227.6983434541837</v>
+        <v>259.6341799833536</v>
       </c>
       <c r="AB2" t="n">
-        <v>311.5469188558176</v>
+        <v>355.2429393048459</v>
       </c>
       <c r="AC2" t="n">
-        <v>281.8133181791574</v>
+        <v>321.3390517641874</v>
       </c>
       <c r="AD2" t="n">
-        <v>227698.3434541837</v>
+        <v>259634.1799833536</v>
       </c>
       <c r="AE2" t="n">
-        <v>311546.9188558176</v>
+        <v>355242.9393048459</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.386298591528288e-06</v>
+        <v>4.99228588762028e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.233796296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>281813.3181791574</v>
+        <v>321339.0517641874</v>
       </c>
     </row>
     <row r="3">
@@ -12711,28 +12711,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>178.0430132070276</v>
+        <v>209.8935088816227</v>
       </c>
       <c r="AB3" t="n">
-        <v>243.6063053731297</v>
+        <v>287.1855586997879</v>
       </c>
       <c r="AC3" t="n">
-        <v>220.3568614919858</v>
+        <v>259.7769720450278</v>
       </c>
       <c r="AD3" t="n">
-        <v>178043.0132070276</v>
+        <v>209893.5088816227</v>
       </c>
       <c r="AE3" t="n">
-        <v>243606.3053731297</v>
+        <v>287185.5586997879</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.762319592088358e-06</v>
+        <v>5.778945336362046e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="AH3" t="n">
-        <v>220356.8614919858</v>
+        <v>259776.9720450279</v>
       </c>
     </row>
     <row r="4">
@@ -12817,28 +12817,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>168.1085202439408</v>
+        <v>199.959015918536</v>
       </c>
       <c r="AB4" t="n">
-        <v>230.0134938221439</v>
+        <v>273.5927471488021</v>
       </c>
       <c r="AC4" t="n">
-        <v>208.0613287977909</v>
+        <v>247.4814393508329</v>
       </c>
       <c r="AD4" t="n">
-        <v>168108.5202439408</v>
+        <v>199959.015918536</v>
       </c>
       <c r="AE4" t="n">
-        <v>230013.4938221439</v>
+        <v>273592.7471488021</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.845362783073542e-06</v>
+        <v>5.952676885251232e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.067708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>208061.3287977909</v>
+        <v>247481.439350833</v>
       </c>
     </row>
   </sheetData>
@@ -23039,28 +23039,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>180.7301451200662</v>
+        <v>221.7063450770701</v>
       </c>
       <c r="AB2" t="n">
-        <v>247.2829578044406</v>
+        <v>303.3484023279432</v>
       </c>
       <c r="AC2" t="n">
-        <v>223.6826193754677</v>
+        <v>274.3972565620106</v>
       </c>
       <c r="AD2" t="n">
-        <v>180730.1451200662</v>
+        <v>221706.3450770701</v>
       </c>
       <c r="AE2" t="n">
-        <v>247282.9578044406</v>
+        <v>303348.4023279432</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.636375115254907e-06</v>
+        <v>5.731099255803829e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.773726851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>223682.6193754677</v>
+        <v>274397.2565620106</v>
       </c>
     </row>
     <row r="3">
@@ -23145,28 +23145,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>156.7522149742293</v>
+        <v>187.4631192368903</v>
       </c>
       <c r="AB3" t="n">
-        <v>214.4752959473031</v>
+        <v>256.4953100289289</v>
       </c>
       <c r="AC3" t="n">
-        <v>194.0060747201223</v>
+        <v>232.0157576332713</v>
       </c>
       <c r="AD3" t="n">
-        <v>156752.2149742293</v>
+        <v>187463.1192368903</v>
       </c>
       <c r="AE3" t="n">
-        <v>214475.2959473031</v>
+        <v>256495.3100289289</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.902913133110384e-06</v>
+        <v>6.310514463805157e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.151620370370371</v>
       </c>
       <c r="AH3" t="n">
-        <v>194006.0747201223</v>
+        <v>232015.7576332713</v>
       </c>
     </row>
   </sheetData>
@@ -23442,28 +23442,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.9635857586435</v>
+        <v>164.5860586363364</v>
       </c>
       <c r="AB2" t="n">
-        <v>186.0313763249594</v>
+        <v>225.1939064505834</v>
       </c>
       <c r="AC2" t="n">
-        <v>168.2768028652342</v>
+        <v>203.7017160806373</v>
       </c>
       <c r="AD2" t="n">
-        <v>135963.5857586435</v>
+        <v>164586.0586363364</v>
       </c>
       <c r="AE2" t="n">
-        <v>186031.3763249594</v>
+        <v>225193.9064505834</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.914748976279003e-06</v>
+        <v>6.932809031980863e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.574074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>168276.8028652342</v>
+        <v>203701.7160806372</v>
       </c>
     </row>
   </sheetData>
@@ -23739,28 +23739,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>358.8862023189147</v>
+        <v>416.4171429701109</v>
       </c>
       <c r="AB2" t="n">
-        <v>491.0439349545534</v>
+        <v>569.7603060394924</v>
       </c>
       <c r="AC2" t="n">
-        <v>444.1793909869812</v>
+        <v>515.3831820946945</v>
       </c>
       <c r="AD2" t="n">
-        <v>358886.2023189147</v>
+        <v>416417.1429701109</v>
       </c>
       <c r="AE2" t="n">
-        <v>491043.9349545534</v>
+        <v>569760.3060394925</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.830465140082464e-06</v>
+        <v>3.552160737530362e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.755787037037038</v>
       </c>
       <c r="AH2" t="n">
-        <v>444179.3909869812</v>
+        <v>515383.1820946945</v>
       </c>
     </row>
     <row r="3">
@@ -23845,28 +23845,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>249.4892204955237</v>
+        <v>295.4969048455694</v>
       </c>
       <c r="AB3" t="n">
-        <v>341.3621581694106</v>
+        <v>404.3119016130877</v>
       </c>
       <c r="AC3" t="n">
-        <v>308.7830328986219</v>
+        <v>365.7249411784518</v>
       </c>
       <c r="AD3" t="n">
-        <v>249489.2204955237</v>
+        <v>295496.9048455694</v>
       </c>
       <c r="AE3" t="n">
-        <v>341362.1581694107</v>
+        <v>404311.9016130877</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.313271439400327e-06</v>
+        <v>4.489084114389634e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.929976851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>308783.0328986219</v>
+        <v>365724.9411784518</v>
       </c>
     </row>
     <row r="4">
@@ -23951,28 +23951,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>226.4769230741314</v>
+        <v>260.9614406315743</v>
       </c>
       <c r="AB4" t="n">
-        <v>309.8757176065667</v>
+        <v>357.0589558783486</v>
       </c>
       <c r="AC4" t="n">
-        <v>280.3016140315889</v>
+        <v>322.9817502647102</v>
       </c>
       <c r="AD4" t="n">
-        <v>226476.9230741314</v>
+        <v>260961.4406315743</v>
       </c>
       <c r="AE4" t="n">
-        <v>309875.7176065667</v>
+        <v>357058.9558783486</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.488479829113773e-06</v>
+        <v>4.829089695046572e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.440972222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>280301.6140315889</v>
+        <v>322981.7502647102</v>
       </c>
     </row>
     <row r="5">
@@ -24057,28 +24057,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>213.2524560759815</v>
+        <v>247.7369736334212</v>
       </c>
       <c r="AB5" t="n">
-        <v>291.7814184373991</v>
+        <v>338.9646567090075</v>
       </c>
       <c r="AC5" t="n">
-        <v>263.9342093796125</v>
+        <v>306.6143456126845</v>
       </c>
       <c r="AD5" t="n">
-        <v>213252.4560759815</v>
+        <v>247736.9736334212</v>
       </c>
       <c r="AE5" t="n">
-        <v>291781.418437399</v>
+        <v>338964.6567090075</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.583091251696943e-06</v>
+        <v>5.012690558708302e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.203703703703705</v>
       </c>
       <c r="AH5" t="n">
-        <v>263934.2093796125</v>
+        <v>306614.3456126845</v>
       </c>
     </row>
     <row r="6">
@@ -24163,28 +24163,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>204.2317884249783</v>
+        <v>238.716305982418</v>
       </c>
       <c r="AB6" t="n">
-        <v>279.4389429935327</v>
+        <v>326.6221812651413</v>
       </c>
       <c r="AC6" t="n">
-        <v>252.7696824693318</v>
+        <v>295.4498187024038</v>
       </c>
       <c r="AD6" t="n">
-        <v>204231.7884249783</v>
+        <v>238716.305982418</v>
       </c>
       <c r="AE6" t="n">
-        <v>279438.9429935327</v>
+        <v>326622.1812651412</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.634385266516624e-06</v>
+        <v>5.112230605400785e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.085069444444446</v>
       </c>
       <c r="AH6" t="n">
-        <v>252769.6824693318</v>
+        <v>295449.8187024037</v>
       </c>
     </row>
     <row r="7">
@@ -24269,28 +24269,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>197.6464696801912</v>
+        <v>232.1309872376309</v>
       </c>
       <c r="AB7" t="n">
-        <v>270.4286193631608</v>
+        <v>317.6118576347693</v>
       </c>
       <c r="AC7" t="n">
-        <v>244.619291480171</v>
+        <v>287.2994277132429</v>
       </c>
       <c r="AD7" t="n">
-        <v>197646.4696801912</v>
+        <v>232130.9872376309</v>
       </c>
       <c r="AE7" t="n">
-        <v>270428.6193631608</v>
+        <v>317611.8576347692</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.663023501572537e-06</v>
+        <v>5.167805339893242e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.018518518518519</v>
       </c>
       <c r="AH7" t="n">
-        <v>244619.291480171</v>
+        <v>287299.4277132429</v>
       </c>
     </row>
     <row r="8">
@@ -24375,28 +24375,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>197.6968106146547</v>
+        <v>232.1813281720944</v>
       </c>
       <c r="AB8" t="n">
-        <v>270.4974980505789</v>
+        <v>317.6807363221874</v>
       </c>
       <c r="AC8" t="n">
-        <v>244.6815964823338</v>
+        <v>287.3617327154058</v>
       </c>
       <c r="AD8" t="n">
-        <v>197696.8106146547</v>
+        <v>232181.3281720944</v>
       </c>
       <c r="AE8" t="n">
-        <v>270497.4980505789</v>
+        <v>317680.7363221874</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.670778536210502e-06</v>
+        <v>5.182854591013055e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.001157407407407</v>
       </c>
       <c r="AH8" t="n">
-        <v>244681.5964823338</v>
+        <v>287361.7327154058</v>
       </c>
     </row>
   </sheetData>
@@ -24672,28 +24672,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>471.4767135327955</v>
+        <v>543.227016048399</v>
       </c>
       <c r="AB2" t="n">
-        <v>645.0952395401765</v>
+        <v>743.2671688419695</v>
       </c>
       <c r="AC2" t="n">
-        <v>583.5282552753163</v>
+        <v>672.3307934297145</v>
       </c>
       <c r="AD2" t="n">
-        <v>471476.7135327955</v>
+        <v>543227.016048399</v>
       </c>
       <c r="AE2" t="n">
-        <v>645095.2395401765</v>
+        <v>743267.1688419695</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.549205896168159e-06</v>
+        <v>2.906917905069367e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.971064814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>583528.2552753163</v>
+        <v>672330.7934297145</v>
       </c>
     </row>
     <row r="3">
@@ -24778,28 +24778,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>310.6625614441882</v>
+        <v>358.4392920600939</v>
       </c>
       <c r="AB3" t="n">
-        <v>425.0622220328671</v>
+        <v>490.4324526221458</v>
       </c>
       <c r="AC3" t="n">
-        <v>384.494880140625</v>
+        <v>443.6262676701577</v>
       </c>
       <c r="AD3" t="n">
-        <v>310662.5614441882</v>
+        <v>358439.2920600939</v>
       </c>
       <c r="AE3" t="n">
-        <v>425062.2220328671</v>
+        <v>490432.4526221458</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.077386730078642e-06</v>
+        <v>3.897992317454765e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.433449074074075</v>
       </c>
       <c r="AH3" t="n">
-        <v>384494.880140625</v>
+        <v>443626.2676701577</v>
       </c>
     </row>
     <row r="4">
@@ -24884,28 +24884,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>266.1394262103486</v>
+        <v>314.0014081722748</v>
       </c>
       <c r="AB4" t="n">
-        <v>364.143704183829</v>
+        <v>429.6305794257569</v>
       </c>
       <c r="AC4" t="n">
-        <v>329.3903401354223</v>
+        <v>388.6272399156673</v>
       </c>
       <c r="AD4" t="n">
-        <v>266139.4262103486</v>
+        <v>314001.4081722748</v>
       </c>
       <c r="AE4" t="n">
-        <v>364143.704183829</v>
+        <v>429630.5794257569</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.279104301715602e-06</v>
+        <v>4.276493601376385e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.776620370370371</v>
       </c>
       <c r="AH4" t="n">
-        <v>329390.3401354223</v>
+        <v>388627.2399156673</v>
       </c>
     </row>
     <row r="5">
@@ -24990,28 +24990,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>250.1717912597402</v>
+        <v>286.0470320260961</v>
       </c>
       <c r="AB5" t="n">
-        <v>342.2960816019082</v>
+        <v>391.3821687225188</v>
       </c>
       <c r="AC5" t="n">
-        <v>309.6278239894919</v>
+        <v>354.0292038479647</v>
       </c>
       <c r="AD5" t="n">
-        <v>250171.7912597402</v>
+        <v>286047.0320260961</v>
       </c>
       <c r="AE5" t="n">
-        <v>342296.0816019081</v>
+        <v>391382.1687225188</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.38516749696372e-06</v>
+        <v>4.475509756748772e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.475694444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>309627.8239894919</v>
+        <v>354029.2038479646</v>
       </c>
     </row>
     <row r="6">
@@ -25096,28 +25096,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>239.2881226238553</v>
+        <v>275.1633633902111</v>
       </c>
       <c r="AB6" t="n">
-        <v>327.4045660207253</v>
+        <v>376.4906531413283</v>
       </c>
       <c r="AC6" t="n">
-        <v>296.157533754999</v>
+        <v>340.5589136134696</v>
       </c>
       <c r="AD6" t="n">
-        <v>239288.1226238553</v>
+        <v>275163.3633902111</v>
       </c>
       <c r="AE6" t="n">
-        <v>327404.5660207253</v>
+        <v>376490.6531413283</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.456641386464087e-06</v>
+        <v>4.609622807601127e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.28761574074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>296157.533754999</v>
+        <v>340558.9136134696</v>
       </c>
     </row>
     <row r="7">
@@ -25202,28 +25202,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>231.6054915739773</v>
+        <v>267.4807323403331</v>
       </c>
       <c r="AB7" t="n">
-        <v>316.8928512845263</v>
+        <v>365.978938405124</v>
       </c>
       <c r="AC7" t="n">
-        <v>286.6490423199353</v>
+        <v>331.0504221784043</v>
       </c>
       <c r="AD7" t="n">
-        <v>231605.4915739773</v>
+        <v>267480.7323403331</v>
       </c>
       <c r="AE7" t="n">
-        <v>316892.8512845263</v>
+        <v>365978.938405124</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.498757068925469e-06</v>
+        <v>4.688648346900983e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.180555555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>286649.0423199353</v>
+        <v>331050.4221784043</v>
       </c>
     </row>
     <row r="8">
@@ -25308,28 +25308,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>224.8867307095606</v>
+        <v>260.7619714759162</v>
       </c>
       <c r="AB8" t="n">
-        <v>307.6999462590262</v>
+        <v>356.7860333796191</v>
       </c>
       <c r="AC8" t="n">
-        <v>278.3334952477427</v>
+        <v>322.7348751062104</v>
       </c>
       <c r="AD8" t="n">
-        <v>224886.7307095606</v>
+        <v>260761.9714759162</v>
       </c>
       <c r="AE8" t="n">
-        <v>307699.9462590262</v>
+        <v>356786.0333796191</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.528435547313971e-06</v>
+        <v>4.744336813124964e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.108217592592593</v>
       </c>
       <c r="AH8" t="n">
-        <v>278333.4952477427</v>
+        <v>322734.8751062104</v>
       </c>
     </row>
     <row r="9">
@@ -25414,28 +25414,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>217.980397819284</v>
+        <v>253.8556385856363</v>
       </c>
       <c r="AB9" t="n">
-        <v>298.250396912651</v>
+        <v>347.3364840330706</v>
       </c>
       <c r="AC9" t="n">
-        <v>269.7857976284567</v>
+        <v>314.187177486875</v>
       </c>
       <c r="AD9" t="n">
-        <v>217980.3978192839</v>
+        <v>253855.6385856363</v>
       </c>
       <c r="AE9" t="n">
-        <v>298250.396912651</v>
+        <v>347336.4840330706</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.553576848250994e-06</v>
+        <v>4.791511754836284e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.047453703703703</v>
       </c>
       <c r="AH9" t="n">
-        <v>269785.7976284567</v>
+        <v>314187.177486875</v>
       </c>
     </row>
     <row r="10">
@@ -25520,28 +25520,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>215.4180181466345</v>
+        <v>251.2932589129869</v>
       </c>
       <c r="AB10" t="n">
-        <v>294.7444360003209</v>
+        <v>343.8305231207406</v>
       </c>
       <c r="AC10" t="n">
-        <v>266.6144407049512</v>
+        <v>311.0158205633697</v>
       </c>
       <c r="AD10" t="n">
-        <v>215418.0181466345</v>
+        <v>251293.2589129869</v>
       </c>
       <c r="AE10" t="n">
-        <v>294744.4360003209</v>
+        <v>343830.5231207405</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.567401894838443e-06</v>
+        <v>4.817452964821916e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.015625</v>
       </c>
       <c r="AH10" t="n">
-        <v>266614.4407049512</v>
+        <v>311015.8205633697</v>
       </c>
     </row>
   </sheetData>
@@ -25817,28 +25817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.9520966579785</v>
+        <v>163.4327650562293</v>
       </c>
       <c r="AB2" t="n">
-        <v>186.0156564305663</v>
+        <v>223.6159192945598</v>
       </c>
       <c r="AC2" t="n">
-        <v>168.2625832554989</v>
+        <v>202.2743298040652</v>
       </c>
       <c r="AD2" t="n">
-        <v>135952.0966579785</v>
+        <v>163432.7650562293</v>
       </c>
       <c r="AE2" t="n">
-        <v>186015.6564305663</v>
+        <v>223615.9192945598</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.802244416116404e-06</v>
+        <v>7.008200623690773e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>168262.5832554989</v>
+        <v>202274.3298040652</v>
       </c>
     </row>
   </sheetData>
@@ -26114,28 +26114,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>245.6631440361763</v>
+        <v>288.7483397329588</v>
       </c>
       <c r="AB2" t="n">
-        <v>336.1271515631537</v>
+        <v>395.0782171003335</v>
       </c>
       <c r="AC2" t="n">
-        <v>304.0476479754866</v>
+        <v>357.3725065560372</v>
       </c>
       <c r="AD2" t="n">
-        <v>245663.1440361763</v>
+        <v>288748.3397329588</v>
       </c>
       <c r="AE2" t="n">
-        <v>336127.1515631537</v>
+        <v>395078.2171003335</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.280324166432549e-06</v>
+        <v>4.695833835083924e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.459490740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>304047.6479754866</v>
+        <v>357372.5065560372</v>
       </c>
     </row>
     <row r="3">
@@ -26220,28 +26220,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>190.3076565389272</v>
+        <v>222.6642461159349</v>
       </c>
       <c r="AB3" t="n">
-        <v>260.3873314577028</v>
+        <v>304.6590447889288</v>
       </c>
       <c r="AC3" t="n">
-        <v>235.5363299993706</v>
+        <v>275.5828131460184</v>
       </c>
       <c r="AD3" t="n">
-        <v>190307.6565389272</v>
+        <v>222664.2461159349</v>
       </c>
       <c r="AE3" t="n">
-        <v>260387.3314577028</v>
+        <v>304659.0447889288</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.675966787796622e-06</v>
+        <v>5.510574140585865e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.357060185185184</v>
       </c>
       <c r="AH3" t="n">
-        <v>235536.3299993706</v>
+        <v>275582.8131460184</v>
       </c>
     </row>
     <row r="4">
@@ -26326,28 +26326,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>173.9195810637132</v>
+        <v>206.276170640721</v>
       </c>
       <c r="AB4" t="n">
-        <v>237.9644436016625</v>
+        <v>282.2361569328884</v>
       </c>
       <c r="AC4" t="n">
-        <v>215.2534510895828</v>
+        <v>255.2999342362307</v>
       </c>
       <c r="AD4" t="n">
-        <v>173919.5810637132</v>
+        <v>206276.170640721</v>
       </c>
       <c r="AE4" t="n">
-        <v>237964.4436016625</v>
+        <v>282236.1569328884</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.812883825709984e-06</v>
+        <v>5.792525131895526e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.047453703703703</v>
       </c>
       <c r="AH4" t="n">
-        <v>215253.4510895828</v>
+        <v>255299.9342362307</v>
       </c>
     </row>
     <row r="5">
@@ -26432,28 +26432,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>173.7333544560405</v>
+        <v>206.0899440330482</v>
       </c>
       <c r="AB5" t="n">
-        <v>237.7096401413066</v>
+        <v>281.9813534725326</v>
       </c>
       <c r="AC5" t="n">
-        <v>215.0229657138644</v>
+        <v>255.0694488605122</v>
       </c>
       <c r="AD5" t="n">
-        <v>173733.3544560405</v>
+        <v>206089.9440330482</v>
       </c>
       <c r="AE5" t="n">
-        <v>237709.6401413066</v>
+        <v>281981.3534725326</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.815823221113878e-06</v>
+        <v>5.798578180227636e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.041666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>215022.9657138644</v>
+        <v>255069.4488605122</v>
       </c>
     </row>
   </sheetData>
@@ -26729,28 +26729,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>315.3122233815408</v>
+        <v>360.2722013506145</v>
       </c>
       <c r="AB2" t="n">
-        <v>431.4240946241605</v>
+        <v>492.9403199756869</v>
       </c>
       <c r="AC2" t="n">
-        <v>390.2495845407495</v>
+        <v>445.8947876832909</v>
       </c>
       <c r="AD2" t="n">
-        <v>315312.2233815409</v>
+        <v>360272.2013506145</v>
       </c>
       <c r="AE2" t="n">
-        <v>431424.0946241605</v>
+        <v>492940.3199756868</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.995098850259078e-06</v>
+        <v>3.952658143569472e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.208912037037038</v>
       </c>
       <c r="AH2" t="n">
-        <v>390249.5845407495</v>
+        <v>445894.7876832909</v>
       </c>
     </row>
     <row r="3">
@@ -26835,28 +26835,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>226.3846698591131</v>
+        <v>271.3445583196385</v>
       </c>
       <c r="AB3" t="n">
-        <v>309.7494926878542</v>
+        <v>371.2655955699814</v>
       </c>
       <c r="AC3" t="n">
-        <v>280.1874358419605</v>
+        <v>335.8325282033176</v>
       </c>
       <c r="AD3" t="n">
-        <v>226384.6698591131</v>
+        <v>271344.5583196385</v>
       </c>
       <c r="AE3" t="n">
-        <v>309749.4926878542</v>
+        <v>371265.5955699814</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.443372074862667e-06</v>
+        <v>4.840769933891757e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.701388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>280187.4358419605</v>
+        <v>335832.5282033176</v>
       </c>
     </row>
     <row r="4">
@@ -26941,28 +26941,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>205.770180824163</v>
+        <v>239.4688514644626</v>
       </c>
       <c r="AB4" t="n">
-        <v>281.543839343179</v>
+        <v>327.6518471936379</v>
       </c>
       <c r="AC4" t="n">
-        <v>254.673690465609</v>
+        <v>296.3812147598301</v>
       </c>
       <c r="AD4" t="n">
-        <v>205770.180824163</v>
+        <v>239468.8514644626</v>
       </c>
       <c r="AE4" t="n">
-        <v>281543.839343179</v>
+        <v>327651.8471936379</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.610908532542796e-06</v>
+        <v>5.172690501992004e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.273148148148149</v>
       </c>
       <c r="AH4" t="n">
-        <v>254673.690465609</v>
+        <v>296381.2147598302</v>
       </c>
     </row>
     <row r="5">
@@ -27047,28 +27047,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>193.6602339696068</v>
+        <v>227.3589046099065</v>
       </c>
       <c r="AB5" t="n">
-        <v>264.974475803634</v>
+        <v>311.0824836540929</v>
       </c>
       <c r="AC5" t="n">
-        <v>239.6856837270251</v>
+        <v>281.3932080212463</v>
       </c>
       <c r="AD5" t="n">
-        <v>193660.2339696068</v>
+        <v>227358.9046099065</v>
       </c>
       <c r="AE5" t="n">
-        <v>264974.475803634</v>
+        <v>311082.4836540929</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.696714366949241e-06</v>
+        <v>5.342687657816321e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.07349537037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>239685.6837270251</v>
+        <v>281393.2080212463</v>
       </c>
     </row>
     <row r="6">
@@ -27153,28 +27153,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>188.4337109048232</v>
+        <v>222.1323815451228</v>
       </c>
       <c r="AB6" t="n">
-        <v>257.8233163684763</v>
+        <v>303.9313242189351</v>
       </c>
       <c r="AC6" t="n">
-        <v>233.2170209116413</v>
+        <v>274.9245452058624</v>
       </c>
       <c r="AD6" t="n">
-        <v>188433.7109048232</v>
+        <v>222132.3815451228</v>
       </c>
       <c r="AE6" t="n">
-        <v>257823.3163684763</v>
+        <v>303931.3242189351</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.721222233900422e-06</v>
+        <v>5.391242254433689e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.018518518518519</v>
       </c>
       <c r="AH6" t="n">
-        <v>233217.0209116413</v>
+        <v>274924.5452058624</v>
       </c>
     </row>
   </sheetData>
